--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490408.1657513023</v>
+        <v>487839.9654719347</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10120672.17103262</v>
+        <v>10120672.17103263</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646765</v>
+        <v>355.8127254646764</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722035</v>
+        <v>338.3517755722033</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218789</v>
+        <v>327.7619254218787</v>
       </c>
       <c r="E11" t="n">
-        <v>330.2797767328512</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546494</v>
+        <v>384.0006094546492</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885164</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6558135741218</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937172</v>
+        <v>82.26664558937166</v>
       </c>
       <c r="T11" t="n">
         <v>176.996853940816</v>
@@ -1427,16 +1427,16 @@
         <v>224.0740557600978</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8311422713307</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3198525186088</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8099844796648</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572495</v>
+        <v>356.6213840777966</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9108639831331</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5128464477651</v>
+        <v>119.512846447765</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>88.46029360621877</v>
       </c>
       <c r="I13" t="n">
-        <v>45.7775701762425</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124316</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326378</v>
+        <v>162.8479091326377</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6278330773651</v>
+        <v>192.627833077365</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068088</v>
+        <v>259.2907220068087</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250239</v>
+        <v>225.2165271250238</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377869</v>
+        <v>259.6018821377868</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7885391902331</v>
+        <v>198.7885391902329</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532907</v>
+        <v>191.6635371532906</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>355.8127254646764</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722034</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>355.0092538734576</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>379.9549295429072</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>44.76804046439879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885162</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412182</v>
+        <v>14.65581357412177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17893369509834</v>
+        <v>82.26664558937163</v>
       </c>
       <c r="T14" t="n">
         <v>176.996853940816</v>
@@ -1667,10 +1667,10 @@
         <v>300.8311422713307</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186089</v>
+        <v>322.3198525186088</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8099844796648</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572494</v>
@@ -1765,10 +1765,10 @@
         <v>152.9108639831331</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3257048998236</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194081</v>
       </c>
       <c r="E16" t="n">
         <v>119.512846447765</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155167</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.26877944236005</v>
+        <v>62.01103647124313</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326377</v>
@@ -1828,10 +1828,10 @@
         <v>259.6018821377868</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902329</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>158.4294739401016</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032863</v>
+        <v>239.1248840069819</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077906</v>
       </c>
       <c r="T17" t="n">
-        <v>50.83917922504575</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123106</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081558</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9529178109777</v>
+        <v>72.5377098291724</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553447</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692411</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244133</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265066</v>
+        <v>15.03589985265056</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587725</v>
+        <v>208.0679044405797</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0341172548651</v>
+        <v>307.9753664292642</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243148</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077916</v>
+        <v>35.29150897077908</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W20" t="n">
-        <v>223.0929609533865</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123106</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081558</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5377098291725</v>
+        <v>134.9529178109793</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553447</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692411</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244144</v>
+        <v>22.45616759244134</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.45110783445585</v>
+        <v>15.03589985265057</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140451</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8375888460839</v>
+        <v>308.8375888460838</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536109</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032863</v>
+        <v>280.7867888032862</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0341172548651</v>
+        <v>308.034117254865</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243148</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360568</v>
+        <v>337.0254728360567</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699238</v>
+        <v>220.7115115699237</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077915</v>
+        <v>35.29150897077908</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222235</v>
+        <v>130.0217173222234</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415053</v>
+        <v>177.0989191415052</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527381</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000164</v>
+        <v>275.3447159000162</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610724</v>
+        <v>295.8348478610723</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3416858386569</v>
+        <v>312.3416858386568</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645405</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123116</v>
+        <v>93.35056828123106</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081568</v>
+        <v>74.71922020081558</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9529178109778</v>
+        <v>72.5377098291724</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553457</v>
+        <v>71.52479520553447</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163155</v>
+        <v>92.12955544163145</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692411</v>
+        <v>70.85876209692401</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244142</v>
+        <v>22.45616759244134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265066</v>
+        <v>15.03589985265057</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8727725140452</v>
+        <v>178.2879804958514</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587724</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882162</v>
+        <v>212.3155853882161</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064312</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191942</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716405</v>
+        <v>151.8134025716404</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6884005346981</v>
+        <v>144.688400534698</v>
       </c>
     </row>
     <row r="26">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2965,7 +2965,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124554</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,22 +3266,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2115.032990081685</v>
+        <v>1142.037494233045</v>
       </c>
       <c r="C11" t="n">
-        <v>1773.263519806732</v>
+        <v>800.2680239580923</v>
       </c>
       <c r="D11" t="n">
-        <v>1442.19086786544</v>
+        <v>469.1953720168005</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.574931771651</v>
+        <v>469.1953720168005</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7820736475022</v>
+        <v>469.1953720168005</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9026701579575</v>
+        <v>81.31596852725579</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31596852725579</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801725</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851406</v>
+        <v>3063.723498851404</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.386068790701</v>
+        <v>2837.386068790699</v>
       </c>
       <c r="V11" t="n">
-        <v>2837.386068790701</v>
+        <v>2533.516228112588</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.386068790701</v>
+        <v>2207.940619507932</v>
       </c>
       <c r="X11" t="n">
-        <v>2837.386068790701</v>
+        <v>1861.667907912311</v>
       </c>
       <c r="Y11" t="n">
-        <v>2474.439783480348</v>
+        <v>1501.444287631708</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811068</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999798</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387287</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332731</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601582</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4219602788327</v>
+        <v>418.3291315370393</v>
       </c>
       <c r="C13" t="n">
-        <v>493.6788240163844</v>
+        <v>276.5859952745911</v>
       </c>
       <c r="D13" t="n">
-        <v>493.6788240163844</v>
+        <v>276.5859952745911</v>
       </c>
       <c r="E13" t="n">
-        <v>372.95877709945</v>
+        <v>155.8659483576569</v>
       </c>
       <c r="F13" t="n">
-        <v>253.2618762669983</v>
+        <v>155.8659483576569</v>
       </c>
       <c r="G13" t="n">
-        <v>112.7520863071758</v>
+        <v>155.8659483576569</v>
       </c>
       <c r="H13" t="n">
-        <v>112.7520863071758</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.2866539159354</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016275</v>
+        <v>368.925741901628</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869403</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.24758719369</v>
+        <v>2036.247587193691</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.509788383021</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.44338211029</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.533561901393</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.042120360965</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.817996989463</v>
+        <v>967.18058641245</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0214927569041</v>
+        <v>766.3840821798915</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4219602788327</v>
+        <v>572.7845497018202</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1553.352906348688</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.583436073735</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.583436073735</v>
+        <v>1139.314829203296</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9882301409493</v>
+        <v>780.7196232705107</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1953720168008</v>
+        <v>396.926765146362</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31596852725599</v>
+        <v>351.7065222530299</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725599</v>
+        <v>81.31596852725592</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3310.273565351495</v>
+        <v>3242.508199801724</v>
       </c>
       <c r="T14" t="n">
-        <v>3131.488864401176</v>
+        <v>3063.723498851405</v>
       </c>
       <c r="U14" t="n">
-        <v>2905.151434340471</v>
+        <v>2837.3860687907</v>
       </c>
       <c r="V14" t="n">
-        <v>2601.281593662359</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2275.705985057704</v>
+        <v>2207.940619507933</v>
       </c>
       <c r="X14" t="n">
-        <v>2275.705985057704</v>
+        <v>1861.667907912312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1912.759699747351</v>
+        <v>1498.721622601959</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>429.1798962126783</v>
+        <v>451.8988923584429</v>
       </c>
       <c r="C16" t="n">
-        <v>429.1798962126783</v>
+        <v>310.1557560959947</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2563034658014</v>
+        <v>187.2321633491177</v>
       </c>
       <c r="E16" t="n">
-        <v>185.536256548867</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>185.536256548867</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>185.536256548867</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,22 +5434,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016274</v>
+        <v>368.9257419016276</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869398</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946396023304</v>
+        <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765985</v>
+        <v>1451.006677765986</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988181723214</v>
+        <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
         <v>2036.24758719369</v>
@@ -5458,28 +5458,28 @@
         <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2088.723142481647</v>
+        <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1924.230304973932</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1729.656736208917</v>
+        <v>1718.805971533278</v>
       </c>
       <c r="U16" t="n">
-        <v>1467.746916000019</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1240.255474459591</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>978.0313510880892</v>
+        <v>967.1805864124505</v>
       </c>
       <c r="X16" t="n">
-        <v>777.2348468555306</v>
+        <v>766.3840821798919</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.6353143774593</v>
+        <v>606.3543105232238</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.314462232242</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905362</v>
+        <v>1518.911892787883</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912144</v>
+        <v>1277.371605912143</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274313</v>
+        <v>966.2260329274311</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513556</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939507</v>
@@ -5537,28 +5537,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3289.957832749797</v>
       </c>
       <c r="T17" t="n">
-        <v>3238.605126461873</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U17" t="n">
-        <v>3059.717329349241</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.717329349241</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.591353692659</v>
+        <v>2445.188784248299</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.768275045111</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.271622682832</v>
+        <v>1830.869053238471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1605877751695</v>
+        <v>569.1149231470827</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8670844607946</v>
+        <v>474.8214198327079</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3931246619908</v>
+        <v>399.3474600339043</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650437</v>
+        <v>326.0770460650432</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806653</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689163</v>
+        <v>160.769621168916</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030595</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5701,22 +5701,22 @@
         <v>1795.063565899911</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454881</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822144</v>
+        <v>1370.433778194057</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.437634229789</v>
+        <v>1190.391969601702</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.663143806361</v>
+        <v>975.6174791782736</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3162725218754</v>
+        <v>822.2706078937883</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1663729918772</v>
+        <v>676.1207083637903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.691443239023</v>
+        <v>1518.911892787882</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.371605912144</v>
+        <v>1224.592055461002</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912144</v>
+        <v>940.969036467784</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274313</v>
+        <v>629.8828077513556</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513556</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098843</v>
+        <v>289.4530372098841</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3289.957832749797</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747552</v>
+        <v>3158.622764747551</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73496763492</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904882</v>
+        <v>2723.314759904881</v>
       </c>
       <c r="W20" t="n">
-        <v>2497.968334699441</v>
+        <v>2445.188784248299</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.145256051893</v>
+        <v>2146.365705600751</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.648603689613</v>
+        <v>1830.869053238472</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5841,13 +5841,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470835</v>
+        <v>632.1605877751705</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327086</v>
+        <v>537.8670844607957</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339048</v>
+        <v>462.3931246619921</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650437</v>
+        <v>326.0770460650433</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806654</v>
+        <v>253.829778180665</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689163</v>
+        <v>160.7696211689161</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030609</v>
+        <v>89.19511400030598</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.061105831466</v>
+        <v>1912.106770459552</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.017901271824</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454883</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.43763422979</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782747</v>
+        <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937894</v>
+        <v>885.3162725218762</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637912</v>
+        <v>739.1663729918781</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792331</v>
+        <v>1862.17982079233</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472233</v>
+        <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875205</v>
+        <v>973.09139148752</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114449</v>
+        <v>636.7481663114445</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699732</v>
+        <v>296.3183957699731</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2566059512978</v>
+        <v>262.2566059512977</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759796411444</v>
+        <v>596.0759796411442</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.044667005838</v>
+        <v>1580.642097561477</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.82348406462</v>
+        <v>2127.420914620259</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943957</v>
+        <v>2901.736699269703</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301135</v>
+        <v>3296.511065626881</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056817</v>
+        <v>3544.797427382563</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.87374961362</v>
+        <v>3668.873749613618</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754247</v>
+        <v>3633.225760754245</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692752001</v>
+        <v>3501.890692751999</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639369</v>
+        <v>3323.002895639368</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909331</v>
+        <v>3066.582687909329</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252748</v>
+        <v>2788.456712252747</v>
       </c>
       <c r="X23" t="n">
         <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242921</v>
+        <v>2174.13698124292</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828897</v>
+        <v>167.0547444828896</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632369</v>
+        <v>405.3189434632378</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0171037759023</v>
+        <v>772.017103775903</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293428998218</v>
+        <v>1219.293428998219</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777751970727</v>
+        <v>2103.777751970728</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27734344683</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>575.9802817071718</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208837</v>
+        <v>481.686778392797</v>
       </c>
       <c r="D25" t="n">
-        <v>469.25848322208</v>
+        <v>406.2128185939933</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251327</v>
+        <v>332.9424046251323</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407543</v>
+        <v>260.695136740754</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290053</v>
+        <v>167.6349797290051</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039506</v>
+        <v>96.06047256039494</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3774749922724</v>
+        <v>73.37747499227237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500107439208</v>
+        <v>118.5001074392079</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880844</v>
+        <v>322.4872903880843</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365805</v>
+        <v>639.0470888365803</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361296</v>
+        <v>983.2041344361293</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062408</v>
+        <v>1623.942110062407</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496067</v>
+        <v>1856.549610496066</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648582</v>
+        <v>1934.159906648581</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019642</v>
+        <v>1918.972129019641</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92892446</v>
+        <v>1738.883259831912</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643058</v>
+        <v>1591.75932401497</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382234</v>
+        <v>1377.299136754146</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789879</v>
+        <v>1197.257328161791</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.4828377383627</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819645</v>
+        <v>829.1359664538775</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519663</v>
+        <v>682.9860669238794</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1921.876785462657</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2468.65560252144</v>
       </c>
       <c r="O26" t="n">
-        <v>2826.495488321721</v>
+        <v>2971.628073400776</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.983160847722</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.34584483446</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309628</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456145</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644876</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032363</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,13 +6388,13 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
         <v>1910.743863481264</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>878.8992091819723</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430381</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O29" t="n">
-        <v>3182.560655874485</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P29" t="n">
-        <v>3577.335022231663</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572841</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6649,22 +6649,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1119.741581677076</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467783</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7014,13 +7014,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643393</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7111,25 +7111,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467792</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737237</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7211,13 +7211,13 @@
         <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643394</v>
@@ -7327,7 +7327,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,52 +7397,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659143</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737237</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
         <v>779.7865456803188</v>
@@ -7506,31 +7506,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7646,22 +7646,22 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1706.925601880499</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>2240.457506552423</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611206</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
         <v>3684.983160847721</v>
@@ -7691,7 +7691,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.790514964339</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,10 +7807,10 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886097</v>
+        <v>164.4450187886088</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592917</v>
+        <v>195.2094266592904</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419203</v>
+        <v>204.9000484419187</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526791</v>
+        <v>196.0014531526773</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740283</v>
+        <v>194.5125490740265</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201067</v>
+        <v>197.142645220105</v>
       </c>
       <c r="P8" t="n">
-        <v>203.106182456192</v>
+        <v>203.1061824561905</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567235</v>
+        <v>201.1836244567224</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485209</v>
+        <v>116.9502528485204</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814166</v>
+        <v>120.9423422814157</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981507</v>
+        <v>115.8314587981495</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072892</v>
+        <v>115.6174569072878</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775617</v>
+        <v>104.1233201775603</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951453</v>
+        <v>117.696733395144</v>
       </c>
       <c r="P9" t="n">
-        <v>113.990354617597</v>
+        <v>113.990354617596</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213395</v>
+        <v>126.6229640213388</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218796</v>
+        <v>121.8405463218789</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274374</v>
+        <v>125.1725778274366</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466759</v>
+        <v>114.2593588466752</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419914</v>
+        <v>126.0552829419908</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773787</v>
+        <v>127.1165875773782</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8005751963233</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0841553233403</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>336.8335818149126</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>190.2350110279878</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.8321087236477</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>174.4519134245553</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374379</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.736966642836</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>62.52018570663898</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>277.2206841544139</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>277.2206841544132</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.8321087236482</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>165.3902622431542</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>209.118756493562</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085647</v>
+        <v>15.10714246085646</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.72947714060646</v>
+        <v>355.0092538734576</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429072</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6866481885163</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412184</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3198525186089</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.695438379452814</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831332</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194081</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.499931824127</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155167</v>
+        <v>29.37360510929781</v>
       </c>
       <c r="I13" t="n">
-        <v>23.65373403479148</v>
+        <v>69.4313042110339</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124323</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3517755722033</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.2325689902505</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.08771189427338</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>118.499931824127</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>139.104692060224</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8338987155166</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103398</v>
+        <v>69.4313042110339</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>10.74225702888313</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.23406321318894</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.66190479630426</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>79.18253809717774</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032863</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.05875082560077374</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9797929243147</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>52.25175494662987</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>983670.6270879026</v>
+        <v>983670.6270879027</v>
       </c>
     </row>
     <row r="9">
@@ -26317,43 +26317,43 @@
         <v>430120.6950354112</v>
       </c>
       <c r="D2" t="n">
-        <v>430128.2517437636</v>
+        <v>430128.2517437634</v>
       </c>
       <c r="E2" t="n">
-        <v>383009.3995417999</v>
+        <v>383009.3995418</v>
       </c>
       <c r="F2" t="n">
         <v>383009.3995418001</v>
       </c>
       <c r="G2" t="n">
-        <v>417129.2484354395</v>
+        <v>417129.2484354393</v>
       </c>
       <c r="H2" t="n">
-        <v>417129.2484354395</v>
+        <v>417129.2484354393</v>
       </c>
       <c r="I2" t="n">
+        <v>431046.9291787484</v>
+      </c>
+      <c r="J2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="J2" t="n">
-        <v>431046.9291787489</v>
       </c>
       <c r="K2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787484</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787485</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936192</v>
+        <v>38521.85015936413</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015504</v>
+        <v>1106215.961015502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071797</v>
+        <v>22820.53767071771</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049021</v>
+        <v>25410.34822049045</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343061</v>
+        <v>422862.8573343054</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554741</v>
+        <v>38195.3098855475</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554744</v>
+        <v>38195.3098855475</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.1071440018</v>
+        <v>75223.10714400183</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400181</v>
+        <v>75223.10714400187</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157184</v>
+        <v>86759.1327915719</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409851</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409847</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409847</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409845</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409848</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058917</v>
+        <v>34688.26308058922</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911055</v>
       </c>
       <c r="F5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
         <v>80518.72463949901</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516664</v>
+        <v>85736.39714516661</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,10 +26503,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39781.40189280305</v>
+        <v>-39785.81547067116</v>
       </c>
       <c r="C6" t="n">
-        <v>-42173.46302664251</v>
+        <v>-42177.87366542037</v>
       </c>
       <c r="D6" t="n">
-        <v>-65944.71883049361</v>
+        <v>-65949.09348494766</v>
       </c>
       <c r="E6" t="n">
-        <v>-837971.4432383619</v>
+        <v>-838200.193379488</v>
       </c>
       <c r="F6" t="n">
-        <v>268244.5177771421</v>
+        <v>268015.7676360136</v>
       </c>
       <c r="G6" t="n">
-        <v>223807.3073570647</v>
+        <v>223741.0326868581</v>
       </c>
       <c r="H6" t="n">
-        <v>261387.4166519387</v>
+        <v>261321.1419817322</v>
       </c>
       <c r="I6" t="n">
         <v>235730.8615712922</v>
       </c>
       <c r="J6" t="n">
-        <v>233451.8777793542</v>
+        <v>233451.8777793537</v>
       </c>
       <c r="K6" t="n">
-        <v>258862.2259998443</v>
+        <v>258862.2259998442</v>
       </c>
       <c r="L6" t="n">
-        <v>221282.1167049704</v>
+        <v>221282.1167049701</v>
       </c>
       <c r="M6" t="n">
-        <v>51673.65770777143</v>
+        <v>51673.65770777105</v>
       </c>
       <c r="N6" t="n">
-        <v>258862.225999844</v>
+        <v>258862.2259998439</v>
       </c>
       <c r="O6" t="n">
-        <v>258862.2259998441</v>
+        <v>258862.2259998442</v>
       </c>
       <c r="P6" t="n">
-        <v>258862.2259998443</v>
+        <v>258862.2259998439</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859262</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179662</v>
+        <v>48.6542697517992</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.218437403405</v>
+        <v>917.2184374034046</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.9804068585543</v>
+        <v>44.98040685855688</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841501</v>
+        <v>1041.122430841499</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111236</v>
+        <v>85.81698200111202</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520942</v>
+        <v>97.11802380521033</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661367</v>
+        <v>337.4716642661365</v>
       </c>
       <c r="I8" t="n">
-        <v>202.935211240331</v>
+        <v>202.9352112403306</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128229</v>
+        <v>137.5825701128222</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868722</v>
+        <v>204.562947286872</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140269</v>
+        <v>222.2396322140268</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451315</v>
+        <v>85.79346287451297</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805414</v>
+        <v>93.6601941280538</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264901</v>
+        <v>169.73929532649</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694518</v>
+        <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069477</v>
+        <v>152.8119778069476</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880847</v>
+        <v>87.15615952880815</v>
       </c>
       <c r="K10" t="n">
-        <v>12.0760235073917</v>
+        <v>12.07602350739115</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.8152485191731</v>
+        <v>78.81524851917271</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723763</v>
+        <v>173.3484074723761</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891986</v>
+        <v>222.4875777891985</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880411</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880414</v>
+        <v>26.92111619880421</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E19" t="n">
-        <v>11.48104483559152</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483558947</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483558987</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.48104483559149</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="E25" t="n">
-        <v>11.48104483559135</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739667</v>
+        <v>11.48104483559047</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739667</v>
+        <v>73.89625281739677</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
         <v>46.97513661859256</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785792</v>
+        <v>0.1955950542785896</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0031378496305</v>
+        <v>2.003137849630606</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330074932</v>
+        <v>7.540678330075332</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807658</v>
+        <v>16.60088573807746</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568884</v>
+        <v>24.88042438569016</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806692</v>
+        <v>30.86636652806855</v>
       </c>
       <c r="M8" t="n">
-        <v>34.3447800745936</v>
+        <v>34.34478007459542</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256262</v>
+        <v>34.90051452256446</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620157999</v>
+        <v>32.95556620158174</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907756</v>
+        <v>28.12681329907905</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772594</v>
+        <v>21.12206541772706</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832681</v>
+        <v>12.28654782832746</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373129</v>
+        <v>4.457122299373365</v>
       </c>
       <c r="T8" t="n">
-        <v>0.856217350104481</v>
+        <v>0.8562173501045264</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228633</v>
+        <v>0.01564760434228716</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208456</v>
+        <v>0.1046525802208511</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711851</v>
+        <v>1.010723603711904</v>
       </c>
       <c r="I9" t="n">
-        <v>3.60316997690192</v>
+        <v>3.603169976902111</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145766</v>
+        <v>9.88737381814629</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294242</v>
+        <v>16.89909669294331</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172351</v>
+        <v>22.72292098172471</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472915</v>
+        <v>26.51657701473056</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577158</v>
+        <v>27.21839190577303</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929916</v>
+        <v>24.89951104930048</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673322</v>
+        <v>19.98405279673428</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468197</v>
+        <v>13.35881006468268</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024588993</v>
+        <v>6.497640024589337</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347722</v>
+        <v>1.943875777347825</v>
       </c>
       <c r="T9" t="n">
-        <v>0.42182333869718</v>
+        <v>0.4218233386972023</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424053</v>
+        <v>0.006885038172424418</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914143</v>
+        <v>0.08773720774914609</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878217</v>
+        <v>0.780063537987863</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310545</v>
+        <v>2.638497120310685</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864299</v>
+        <v>6.203020587864628</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849116</v>
+        <v>10.1934683184917</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935872</v>
+        <v>13.04412995935941</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016769</v>
+        <v>13.75320612016842</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855726</v>
+        <v>13.42618561855797</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985138</v>
+        <v>12.40125550985204</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176888</v>
+        <v>10.61141647176945</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521289</v>
+        <v>7.346794732521679</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793213</v>
+        <v>3.944983904793422</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773673</v>
+        <v>1.529020247773754</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603826951</v>
+        <v>0.374877160382715</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225902</v>
+        <v>0.004785665877226156</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353167</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187034</v>
+        <v>72.49953281187038</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690022</v>
       </c>
       <c r="M13" t="n">
         <v>374.5544955922879</v>
@@ -35729,13 +35729,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187034</v>
+        <v>72.49953281187041</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690022</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5544955922879</v>
+        <v>374.554495592288</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,7 +35820,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439145</v>
+        <v>261.8781873439146</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3153547366978</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882182</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.72169102655</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1371562115593</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609577</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451391</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>698.2880119162069</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>615.0233952790481</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>425.2462182282748</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>521.1072324560757</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>954.8518371008046</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465555</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37479,10 +37479,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>518.1103000989709</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>785.273685042633</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>785.2736850426326</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>676.5940949430199</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>620.9803766354863</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>717.171757381781</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
